--- a/prep_and_checklists/Devyn Turk Tasting/Devyn Turk Tasting_2025-04-12_1.xlsx
+++ b/prep_and_checklists/Devyn Turk Tasting/Devyn Turk Tasting_2025-04-12_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Devyn Turk Tasting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BB8811-53A9-AA43-B86D-83C0888D6D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE58BDB-AFA4-E047-8EE6-398921946E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="99">
   <si>
     <t>Devyn Turk Tasting 4 Guests Event Start: 4:00 PM Event End: 5:00 PM</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Make lobster salad kit</t>
   </si>
   <si>
-    <t>Picked tarragon</t>
-  </si>
-  <si>
     <t>Crispy Burrata</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Pick pea tendril</t>
   </si>
   <si>
-    <t>Picked dill</t>
-  </si>
-  <si>
     <t>Smashed pea mix</t>
   </si>
   <si>
@@ -83,12 +77,6 @@
     <t>Pull caviar</t>
   </si>
   <si>
-    <t xml:space="preserve">Pull hash brown </t>
-  </si>
-  <si>
-    <t>Whip smoke labneh</t>
-  </si>
-  <si>
     <t>Beef Tenderloin Canape</t>
   </si>
   <si>
@@ -125,9 +113,6 @@
     <t>Broccoli pesto</t>
   </si>
   <si>
-    <t>Broccoli puree</t>
-  </si>
-  <si>
     <t>Make / sear lamb sausage</t>
   </si>
   <si>
@@ -255,6 +240,84 @@
   </si>
   <si>
     <t>Scallion</t>
+  </si>
+  <si>
+    <t>6 pcs</t>
+  </si>
+  <si>
+    <t>enough for 2x lobster</t>
+  </si>
+  <si>
+    <t>Picked chervil</t>
+  </si>
+  <si>
+    <t>1 cup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 cup</t>
+  </si>
+  <si>
+    <t>1 x recipe ( save for Saturday)</t>
+  </si>
+  <si>
+    <t>1 pint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 pint </t>
+  </si>
+  <si>
+    <t>lemon vin</t>
+  </si>
+  <si>
+    <t>1x squeeze bottle</t>
+  </si>
+  <si>
+    <t>10 pcs</t>
+  </si>
+  <si>
+    <t>* see PM line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pull mini hash brown </t>
+  </si>
+  <si>
+    <t>whip smoke creme fraiche</t>
+  </si>
+  <si>
+    <t>8 pcs</t>
+  </si>
+  <si>
+    <t>1x small piping bag</t>
+  </si>
+  <si>
+    <t>1x strip steak, cut and portioned</t>
+  </si>
+  <si>
+    <t>1 x small piping bag</t>
+  </si>
+  <si>
+    <t>1 x recipe</t>
+  </si>
+  <si>
+    <t>1x recipe</t>
+  </si>
+  <si>
+    <t>1 x box</t>
+  </si>
+  <si>
+    <t>Basil puree</t>
+  </si>
+  <si>
+    <t>*see PM line</t>
+  </si>
+  <si>
+    <t>1 steak</t>
+  </si>
+  <si>
+    <t>* See PM line</t>
+  </si>
+  <si>
+    <t>*See PM line</t>
   </si>
 </sst>
 </file>
@@ -642,9 +705,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B61"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -670,7 +738,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -678,15 +746,15 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -695,7 +763,7 @@
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
@@ -703,239 +771,243 @@
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="23" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>2</v>
+      <c r="B23" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="37" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="36" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="43" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="42" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>4</v>
@@ -943,95 +1015,87 @@
     </row>
     <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="52" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="51" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-    </row>
-    <row r="59" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="58" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="75" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1039,7 +1103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1052,241 +1116,242 @@
   <sheetData>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>